--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -70,6 +71,27 @@
   </si>
   <si>
     <t>1399/08/06</t>
+  </si>
+  <si>
+    <t>توسعه App</t>
+  </si>
+  <si>
+    <t>توسعه Web</t>
+  </si>
+  <si>
+    <t>پشتیبانی App]</t>
+  </si>
+  <si>
+    <t>پشتیبانی Web</t>
+  </si>
+  <si>
+    <t>تحقیق و آموزش</t>
+  </si>
+  <si>
+    <t>WebAPI</t>
+  </si>
+  <si>
+    <t>هزینه</t>
   </si>
 </sst>
 </file>
@@ -245,40 +267,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="B Nazanin"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -452,13 +440,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -492,6 +473,47 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="B Nazanin"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -506,14 +528,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E1048575" totalsRowShown="0" headerRowDxfId="0" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E1048575" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A1:E1048575"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="نوع فعالیت" dataDxfId="5"/>
-    <tableColumn id="2" name="شرح فعالیت" dataDxfId="4"/>
-    <tableColumn id="3" name="تاریخ" dataDxfId="3"/>
-    <tableColumn id="4" name="مدت زمان" dataDxfId="2"/>
-    <tableColumn id="5" name="مبلغ هزینه" dataDxfId="1"/>
+    <tableColumn id="1" name="نوع فعالیت" dataDxfId="4"/>
+    <tableColumn id="2" name="شرح فعالیت" dataDxfId="3"/>
+    <tableColumn id="3" name="تاریخ" dataDxfId="2"/>
+    <tableColumn id="4" name="مدت زمان" dataDxfId="1"/>
+    <tableColumn id="5" name="مبلغ هزینه" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -785,7 +807,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1018,5 +1040,72 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$5:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:A11"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>هزینه</t>
+  </si>
+  <si>
+    <t>1399/08/07</t>
+  </si>
+  <si>
+    <t>پیاده سازی سیستم ثبت لوگ در دیتابیس و فایل توسط Nlog</t>
   </si>
 </sst>
 </file>
@@ -238,8 +244,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -837,6 +843,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
@@ -848,6 +857,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
@@ -859,6 +871,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="37.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
@@ -870,6 +885,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="37.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="B5" s="7" t="s">
         <v>11</v>
       </c>
@@ -881,6 +899,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="37.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
@@ -892,6 +913,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="37.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="B7" s="7" t="s">
         <v>15</v>
       </c>
@@ -902,137 +926,418 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="8">
+        <v>11</v>
+      </c>
+    </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="10"/>
+      <c r="A9" s="8"/>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="10"/>
+      <c r="A10" s="8"/>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="10"/>
+      <c r="A11" s="8"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="10"/>
+      <c r="A12" s="8"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="10"/>
+      <c r="A13" s="8"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="10"/>
+      <c r="A14" s="8"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="10"/>
+      <c r="A15" s="8"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="10"/>
+      <c r="A16" s="8"/>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="10"/>
+      <c r="A17" s="8"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="10"/>
+      <c r="A18" s="8"/>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="10"/>
+      <c r="A19" s="8"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="10"/>
+      <c r="A20" s="8"/>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="10"/>
+      <c r="A21" s="8"/>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="10"/>
+      <c r="A22" s="8"/>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="10"/>
+      <c r="A23" s="8"/>
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="10"/>
+      <c r="A24" s="8"/>
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="10"/>
+      <c r="A25" s="8"/>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="10"/>
+      <c r="A26" s="8"/>
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="10"/>
+      <c r="A27" s="8"/>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="10"/>
+      <c r="A28" s="8"/>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="10"/>
+      <c r="A29" s="8"/>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="10"/>
+      <c r="A30" s="8"/>
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="10"/>
+      <c r="A31" s="8"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="10"/>
+      <c r="A32" s="8"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" s="10"/>
+      <c r="A33" s="8"/>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="10"/>
+      <c r="A34" s="8"/>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" s="10"/>
+      <c r="A35" s="8"/>
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" s="10"/>
+      <c r="A36" s="8"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" s="10"/>
+      <c r="A37" s="8"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" s="10"/>
+      <c r="A38" s="8"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" s="10"/>
+      <c r="A39" s="8"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A40" s="10"/>
+      <c r="A40" s="8"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A41" s="10"/>
+      <c r="A41" s="8"/>
       <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" s="10"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" s="10"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" s="10"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" s="10"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46" s="10"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" s="10"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" s="10"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49" s="10"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50" s="10"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51" s="10"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52" s="10"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53" s="10"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54" s="10"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55" s="10"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56" s="10"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57" s="10"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58" s="10"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59" s="10"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60" s="10"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61" s="10"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62" s="10"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63" s="10"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64" s="10"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65" s="10"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66" s="10"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67" s="10"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A68" s="10"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A69" s="10"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A70" s="10"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A71" s="10"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A72" s="10"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A73" s="10"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A74" s="10"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A75" s="10"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A76" s="10"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A77" s="10"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A78" s="10"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A79" s="10"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A80" s="10"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A81" s="10"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A82" s="10"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A83" s="10"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A84" s="10"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A85" s="10"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A86" s="10"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A87" s="10"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A88" s="10"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A89" s="10"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A90" s="10"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A91" s="10"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A92" s="10"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A93" s="10"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A94" s="10"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A95" s="10"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A96" s="10"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" s="10"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A98" s="10"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" s="10"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" s="10"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" s="10"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" s="10"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" s="10"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A104" s="10"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A105" s="10"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A106" s="10"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A107" s="10"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A108" s="10"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A109" s="10"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A110" s="10"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A111" s="10"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A112" s="10"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A113" s="10"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A114" s="10"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A115" s="10"/>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A116" s="10"/>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A117" s="10"/>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A118" s="10"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A119" s="10"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A120" s="10"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A121" s="10"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A122" s="10"/>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A123" s="10"/>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A124" s="10"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A125" s="10"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A126" s="10"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A127" s="10"/>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A128" s="10"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A129" s="10"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A130" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>پیاده سازی سیستم ثبت لوگ در دیتابیس و فایل توسط Nlog</t>
+  </si>
+  <si>
+    <t>پیاده سازی زیر ساخت سیستم احراز هویت با توکن JWT</t>
+  </si>
+  <si>
+    <t>1399/08/08</t>
+  </si>
+  <si>
+    <t>ارتقای امنیت و اندکودینگ سیستم احراز هویت با توکن JWT</t>
+  </si>
+  <si>
+    <t>1399/08/09</t>
   </si>
 </sst>
 </file>
@@ -812,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -941,11 +953,33 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="8"/>
+      <c r="A9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="8">
+        <v>8</v>
+      </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="8"/>
+      <c r="A10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="8">
+        <v>6</v>
+      </c>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -110,6 +110,15 @@
   </si>
   <si>
     <t>1399/08/09</t>
+  </si>
+  <si>
+    <t>پیاده سازی سیستم مدیریت کاربران با Identity</t>
+  </si>
+  <si>
+    <t>1399/08/10</t>
+  </si>
+  <si>
+    <t>1399/08/11</t>
   </si>
 </sst>
 </file>
@@ -825,7 +834,7 @@
   <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -983,11 +992,33 @@
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="8"/>
+      <c r="A11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2</v>
+      </c>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="8"/>
+      <c r="A12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="8">
+        <v>4</v>
+      </c>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>1399/08/11</t>
+  </si>
+  <si>
+    <t>پیاده سازی ساختار AutoMapper  و ایجاد DTO بصورت کلاس پایه</t>
+  </si>
+  <si>
+    <t>1399/08/12</t>
   </si>
 </sst>
 </file>
@@ -834,7 +840,7 @@
   <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D2" sqref="D2:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1022,7 +1028,18 @@
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="8"/>
+      <c r="A13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8">
+        <v>10</v>
+      </c>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>1399/08/12</t>
+  </si>
+  <si>
+    <t>پیاده سازی سیستم Api Versioning</t>
+  </si>
+  <si>
+    <t>1399/08/13</t>
   </si>
 </sst>
 </file>
@@ -840,7 +846,7 @@
   <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1043,7 +1049,18 @@
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="8"/>
+      <c r="A14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="8">
+        <v>13</v>
+      </c>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>1399/08/13</t>
+  </si>
+  <si>
+    <t>1399/08/14</t>
+  </si>
+  <si>
+    <t>پیاده سازی چهار عمل اصلی واکشی و ایجاد و تغییر و حذف از بانک بصورت کلاس پایه به شکل CRUD Controler</t>
   </si>
 </sst>
 </file>
@@ -846,7 +852,7 @@
   <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D2" sqref="D2:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1063,8 +1069,19 @@
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="8"/>
+    <row r="15" spans="1:5" ht="37.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="8">
+        <v>10</v>
+      </c>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>پیاده سازی چهار عمل اصلی واکشی و ایجاد و تغییر و حذف از بانک بصورت کلاس پایه به شکل CRUD Controler</t>
+  </si>
+  <si>
+    <t>داکیومنت سازی خروجی های Api با Swagger</t>
+  </si>
+  <si>
+    <t>1399/08/15</t>
   </si>
 </sst>
 </file>
@@ -851,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D15"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1085,11 +1091,33 @@
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="8"/>
+      <c r="A16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="8">
+        <v>7</v>
+      </c>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="8"/>
+      <c r="A17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="8">
+        <v>6</v>
+      </c>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>1399/08/15</t>
+  </si>
+  <si>
+    <t>1399/08/16</t>
   </si>
 </sst>
 </file>
@@ -858,7 +861,7 @@
   <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1113,7 +1116,7 @@
         <v>39</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" s="8">
         <v>6</v>

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -146,6 +146,24 @@
   </si>
   <si>
     <t>1399/08/16</t>
+  </si>
+  <si>
+    <t>نصب و بروزرسانی ویژوال استودیو</t>
+  </si>
+  <si>
+    <t>انتقال برنامه از 2017 به 2019 و بروزرسانی پکیج های پروژه</t>
+  </si>
+  <si>
+    <t>1399/08/18</t>
+  </si>
+  <si>
+    <t>1399/08/20</t>
+  </si>
+  <si>
+    <t>کدنویسی کلاسهای مربوط به احراز هویت و سفارش سازی کلاس ها و متدها</t>
+  </si>
+  <si>
+    <t>1399/08/19</t>
   </si>
 </sst>
 </file>
@@ -860,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1124,15 +1142,49 @@
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="8"/>
+      <c r="A18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="8"/>
+      <c r="A19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="8">
+        <f>-D21</f>
+        <v>0</v>
+      </c>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="8"/>
+      <c r="A20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="8">
+        <v>6</v>
+      </c>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>1399/08/19</t>
+  </si>
+  <si>
+    <t>1399/08/21</t>
   </si>
 </sst>
 </file>
@@ -878,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D20"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1167,7 +1170,6 @@
         <v>47</v>
       </c>
       <c r="D19" s="8">
-        <f>-D21</f>
         <v>0</v>
       </c>
       <c r="E19" s="8"/>
@@ -1188,7 +1190,18 @@
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="8"/>
+      <c r="A21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="8">
+        <v>3.5</v>
+      </c>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>1399/08/21</t>
+  </si>
+  <si>
+    <t>اضافه کردن Autofac به برنامه جهت تزریق وابستگی</t>
+  </si>
+  <si>
+    <t>1399/08/25</t>
   </si>
 </sst>
 </file>
@@ -881,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1205,7 +1211,18 @@
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="8"/>
+      <c r="A22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="8">
+        <v>4</v>
+      </c>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>1399/08/25</t>
+  </si>
+  <si>
+    <t>1399/08/27</t>
+  </si>
+  <si>
+    <t>تفکیکو تغییر لایه بندی پروژه به 7 لایه و اضافه شدن لایه ViewModels</t>
   </si>
 </sst>
 </file>
@@ -887,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1226,7 +1232,18 @@
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="8"/>
+      <c r="A23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="8">
+        <v>5</v>
+      </c>
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>تفکیکو تغییر لایه بندی پروژه به 7 لایه و اضافه شدن لایه ViewModels</t>
+  </si>
+  <si>
+    <t>پابلیش پروژه روی هاست و حل باگ های موجود روی swagger و Nlog</t>
+  </si>
+  <si>
+    <t>1399/09/02</t>
   </si>
 </sst>
 </file>
@@ -893,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1247,7 +1253,18 @@
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="8"/>
+      <c r="A24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="8">
+        <v>9</v>
+      </c>
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -178,13 +178,19 @@
     <t>1399/08/27</t>
   </si>
   <si>
-    <t>تفکیکو تغییر لایه بندی پروژه به 7 لایه و اضافه شدن لایه ViewModels</t>
-  </si>
-  <si>
-    <t>پابلیش پروژه روی هاست و حل باگ های موجود روی swagger و Nlog</t>
-  </si>
-  <si>
     <t>1399/09/02</t>
+  </si>
+  <si>
+    <t>حذف شدن پروژه و نوشتن کدهای برنامه از اول</t>
+  </si>
+  <si>
+    <t>1399/09/01</t>
+  </si>
+  <si>
+    <t>تفکیک و تغییر لایه بندی پروژه به 7 لایه و اضافه شدن لایه ViewModels</t>
+  </si>
+  <si>
+    <t>پابلیش پروژه روی هاست و حل باگ های موجود روی swagger و Nlog و خطاهای روی آپدیت و حذف رکورد از بانک</t>
   </si>
 </sst>
 </file>
@@ -899,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1237,12 +1243,12 @@
       </c>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" ht="37.5" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>51</v>
@@ -1263,12 +1269,23 @@
         <v>54</v>
       </c>
       <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" ht="37.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="8">
         <v>9</v>
       </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="8"/>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -1604,7 +1621,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>پابلیش پروژه روی هاست و حل باگ های موجود روی swagger و Nlog و خطاهای روی آپدیت و حذف رکورد از بانک</t>
+  </si>
+  <si>
+    <t>1399/09/03</t>
+  </si>
+  <si>
+    <t>ایجاد اپ موبایل با React-native و تبدیل به Vue-native و تنظیمات و کدنویسی زیرساخت پروژه و بکاپ گیری از تمامی پروژه ها روی سیستم ویرا و لب تاپ و فلش</t>
   </si>
 </sst>
 </file>
@@ -906,7 +912,7 @@
   <dimension ref="A1:E130"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
@@ -1288,8 +1294,19 @@
       </c>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="8"/>
+    <row r="26" spans="1:5" ht="56.25" x14ac:dyDescent="0.45">
+      <c r="A26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="8">
+        <v>4</v>
+      </c>
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>ایجاد اپ موبایل با React-native و تبدیل به Vue-native و تنظیمات و کدنویسی زیرساخت پروژه و بکاپ گیری از تمامی پروژه ها روی سیستم ویرا و لب تاپ و فلش</t>
+  </si>
+  <si>
+    <t>1399/09/04</t>
+  </si>
+  <si>
+    <t>ایجاد لایه های Root, Navigation, Components, ماژولار کردن مسیرهای پروژه، اضافه کردن base native به پروژه</t>
   </si>
 </sst>
 </file>
@@ -911,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E130"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -1309,8 +1315,19 @@
       </c>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="8"/>
+    <row r="27" spans="1:5" ht="37.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="8">
+        <v>9</v>
+      </c>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -203,13 +203,31 @@
   </si>
   <si>
     <t>ایجاد لایه های Root, Navigation, Components, ماژولار کردن مسیرهای پروژه، اضافه کردن base native به پروژه</t>
+  </si>
+  <si>
+    <t>اضافه کردن Vuex به پروژه و زیر ساخت لایه واکشی اطلاعات از بانک</t>
+  </si>
+  <si>
+    <t>1399/09/06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اضافه کردن فونت فارسی </t>
+  </si>
+  <si>
+    <t>1399/09/07</t>
+  </si>
+  <si>
+    <t>اضافه کردن زیر ساخت Store منبع داده مشترک مازولهای پروژه</t>
+  </si>
+  <si>
+    <t>1399/09/05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +240,11 @@
       <color theme="1"/>
       <name val="B Nazanin"/>
       <charset val="178"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="B Nazanin"/>
     </font>
   </fonts>
   <fills count="2">
@@ -320,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -352,6 +375,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,8 +665,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E1048575" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
-  <autoFilter ref="A1:E1048575"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:E1048576"/>
   <tableColumns count="5">
     <tableColumn id="1" name="نوع فعالیت" dataDxfId="4"/>
     <tableColumn id="2" name="شرح فعالیت" dataDxfId="3"/>
@@ -915,13 +941,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="18.25" style="6" customWidth="1"/>
     <col min="2" max="2" width="48.5" style="7" customWidth="1"/>
@@ -930,7 +956,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -947,7 +973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5">
       <c r="A2" s="10" t="s">
         <v>22</v>
       </c>
@@ -961,7 +987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5">
       <c r="A3" s="10" t="s">
         <v>22</v>
       </c>
@@ -975,7 +1001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="37.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" ht="37.5">
       <c r="A4" s="10" t="s">
         <v>22</v>
       </c>
@@ -989,7 +1015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="37.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="37.5">
       <c r="A5" s="10" t="s">
         <v>22</v>
       </c>
@@ -1003,7 +1029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="37.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="37.5">
       <c r="A6" s="10" t="s">
         <v>22</v>
       </c>
@@ -1017,7 +1043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="37.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="37.5">
       <c r="A7" s="10" t="s">
         <v>22</v>
       </c>
@@ -1031,7 +1057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5">
       <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
@@ -1045,7 +1071,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
         <v>22</v>
       </c>
@@ -1060,7 +1086,7 @@
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
@@ -1075,7 +1101,7 @@
       </c>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
@@ -1090,7 +1116,7 @@
       </c>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
@@ -1105,7 +1131,7 @@
       </c>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
@@ -1120,7 +1146,7 @@
       </c>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
@@ -1135,7 +1161,7 @@
       </c>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" ht="37.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" ht="37.5">
       <c r="A15" s="8" t="s">
         <v>22</v>
       </c>
@@ -1150,7 +1176,7 @@
       </c>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
         <v>22</v>
       </c>
@@ -1165,7 +1191,7 @@
       </c>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
@@ -1180,7 +1206,7 @@
       </c>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
         <v>22</v>
       </c>
@@ -1195,7 +1221,7 @@
       </c>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
         <v>22</v>
       </c>
@@ -1210,7 +1236,7 @@
       </c>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
@@ -1225,7 +1251,7 @@
       </c>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
         <v>22</v>
       </c>
@@ -1240,7 +1266,7 @@
       </c>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5">
       <c r="A22" s="8" t="s">
         <v>22</v>
       </c>
@@ -1255,7 +1281,7 @@
       </c>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" ht="37.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" ht="37.5">
       <c r="A23" s="8" t="s">
         <v>22</v>
       </c>
@@ -1270,7 +1296,7 @@
       </c>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
@@ -1285,7 +1311,7 @@
       </c>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" ht="37.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" ht="37.5">
       <c r="A25" s="8" t="s">
         <v>22</v>
       </c>
@@ -1300,7 +1326,7 @@
       </c>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" ht="56.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" ht="56.25">
       <c r="A26" s="8" t="s">
         <v>17</v>
       </c>
@@ -1315,7 +1341,7 @@
       </c>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" ht="37.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" ht="37.5">
       <c r="A27" s="8" t="s">
         <v>17</v>
       </c>
@@ -1330,328 +1356,365 @@
       </c>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="8"/>
+    <row r="28" spans="1:5">
+      <c r="A28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="8">
+        <v>3</v>
+      </c>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="8">
+        <v>4</v>
+      </c>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="8"/>
+    <row r="30" spans="1:5">
+      <c r="A30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5">
       <c r="A31" s="8"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5">
       <c r="A32" s="8"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5">
       <c r="A33" s="8"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5">
       <c r="A34" s="8"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5">
       <c r="A35" s="8"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5">
       <c r="A36" s="8"/>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5">
       <c r="A37" s="8"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5">
       <c r="A38" s="8"/>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5">
       <c r="A39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5">
       <c r="A40" s="8"/>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5">
       <c r="A41" s="8"/>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A42" s="10"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5">
+      <c r="A42" s="8"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="10"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5">
       <c r="A44" s="10"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5">
       <c r="A45" s="10"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5">
       <c r="A46" s="10"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5">
       <c r="A47" s="10"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5">
       <c r="A48" s="10"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1">
       <c r="A49" s="10"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1">
       <c r="A50" s="10"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1">
       <c r="A51" s="10"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1">
       <c r="A52" s="10"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1">
       <c r="A53" s="10"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1">
       <c r="A54" s="10"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1">
       <c r="A55" s="10"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1">
       <c r="A56" s="10"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1">
       <c r="A57" s="10"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1">
       <c r="A58" s="10"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1">
       <c r="A59" s="10"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1">
       <c r="A60" s="10"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1">
       <c r="A61" s="10"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1">
       <c r="A62" s="10"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1">
       <c r="A63" s="10"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1">
       <c r="A64" s="10"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1">
       <c r="A65" s="10"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1">
       <c r="A66" s="10"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1">
       <c r="A67" s="10"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:1">
       <c r="A68" s="10"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:1">
       <c r="A69" s="10"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:1">
       <c r="A70" s="10"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:1">
       <c r="A71" s="10"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:1">
       <c r="A72" s="10"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:1">
       <c r="A73" s="10"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:1">
       <c r="A74" s="10"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:1">
       <c r="A75" s="10"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:1">
       <c r="A76" s="10"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:1">
       <c r="A77" s="10"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:1">
       <c r="A78" s="10"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:1">
       <c r="A79" s="10"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:1">
       <c r="A80" s="10"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:1">
       <c r="A81" s="10"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:1">
       <c r="A82" s="10"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:1">
       <c r="A83" s="10"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:1">
       <c r="A84" s="10"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:1">
       <c r="A85" s="10"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:1">
       <c r="A86" s="10"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:1">
       <c r="A87" s="10"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:1">
       <c r="A88" s="10"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:1">
       <c r="A89" s="10"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:1">
       <c r="A90" s="10"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:1">
       <c r="A91" s="10"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:1">
       <c r="A92" s="10"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:1">
       <c r="A93" s="10"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:1">
       <c r="A94" s="10"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:1">
       <c r="A95" s="10"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:1">
       <c r="A96" s="10"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:1">
       <c r="A97" s="10"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:1">
       <c r="A98" s="10"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:1">
       <c r="A99" s="10"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:1">
       <c r="A100" s="10"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:1">
       <c r="A101" s="10"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:1">
       <c r="A102" s="10"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:1">
       <c r="A103" s="10"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:1">
       <c r="A104" s="10"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:1">
       <c r="A105" s="10"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:1">
       <c r="A106" s="10"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:1">
       <c r="A107" s="10"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:1">
       <c r="A108" s="10"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:1">
       <c r="A109" s="10"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:1">
       <c r="A110" s="10"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:1">
       <c r="A111" s="10"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:1">
       <c r="A112" s="10"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:1">
       <c r="A113" s="10"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:1">
       <c r="A114" s="10"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:1">
       <c r="A115" s="10"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:1">
       <c r="A116" s="10"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:1">
       <c r="A117" s="10"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:1">
       <c r="A118" s="10"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:1">
       <c r="A119" s="10"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:1">
       <c r="A120" s="10"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:1">
       <c r="A121" s="10"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:1">
       <c r="A122" s="10"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:1">
       <c r="A123" s="10"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:1">
       <c r="A124" s="10"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:1">
       <c r="A125" s="10"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:1">
       <c r="A126" s="10"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:1">
       <c r="A127" s="10"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:1">
       <c r="A128" s="10"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:1">
       <c r="A129" s="10"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:1">
       <c r="A130" s="10"/>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1682,44 +1745,44 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>23</v>
       </c>

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -221,6 +221,30 @@
   </si>
   <si>
     <t>1399/09/05</t>
+  </si>
+  <si>
+    <t>ایجاد کامپوننت لیست محصولات و صفحه محصولات</t>
+  </si>
+  <si>
+    <t>1399/09/08</t>
+  </si>
+  <si>
+    <t>ایجاد کامپوننت جزئیات محصول</t>
+  </si>
+  <si>
+    <t>1399/09/09</t>
+  </si>
+  <si>
+    <t>1399/09/10</t>
+  </si>
+  <si>
+    <t>1399/09/11</t>
+  </si>
+  <si>
+    <t>ایجاد صفحه جزئیات محصولات</t>
+  </si>
+  <si>
+    <t>کار روی تاریخ شمسی و ایجاد فرم لاگین و گرفتن توکن از سرور با تریک query-string</t>
   </si>
 </sst>
 </file>
@@ -944,7 +968,7 @@
   <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1402,19 +1426,63 @@
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="8"/>
+      <c r="A31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="8">
+        <v>6</v>
+      </c>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="8"/>
+      <c r="A32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="8">
+        <v>5</v>
+      </c>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="8"/>
+      <c r="A33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="8">
+        <v>3</v>
+      </c>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="8"/>
+    <row r="34" spans="1:5" ht="37.5">
+      <c r="A34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="8">
+        <v>12</v>
+      </c>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5">

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -245,6 +245,33 @@
   </si>
   <si>
     <t>کار روی تاریخ شمسی و ایجاد فرم لاگین و گرفتن توکن از سرور با تریک query-string</t>
+  </si>
+  <si>
+    <t>1399/09/12</t>
+  </si>
+  <si>
+    <t>متد لاگین و ذخیره توکن و انکریپت کردن توکن</t>
+  </si>
+  <si>
+    <t>1399/09/15</t>
+  </si>
+  <si>
+    <t>1399/09/16</t>
+  </si>
+  <si>
+    <t>لیست محصولات و اصلاحات زیرساخت پروژه</t>
+  </si>
+  <si>
+    <t>1399/09/17</t>
+  </si>
+  <si>
+    <t>اصلاح متدهای get برای ساپورت حالات صفحه بندی و لیزی لودینگ و فیلترهای parentId  و categoryId</t>
+  </si>
+  <si>
+    <t>متد لاگین و ذخیره توکن و صفحه لاگین , صفحه رجیستر</t>
+  </si>
+  <si>
+    <t>واکشی محصولات بصورت میزی لودینگ و صفحه محصولات و متدهای صفحه رجیستر</t>
   </si>
 </sst>
 </file>
@@ -967,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1486,23 +1513,78 @@
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="8"/>
+      <c r="A35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="8">
+        <v>7</v>
+      </c>
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="8"/>
+      <c r="A36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="8">
+        <v>6</v>
+      </c>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="8"/>
+    <row r="37" spans="1:5" ht="37.5">
+      <c r="A37" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="8">
+        <v>12</v>
+      </c>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="8"/>
+      <c r="A38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="8">
+        <v>7</v>
+      </c>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="8"/>
+    <row r="39" spans="1:5" ht="37.5">
+      <c r="A39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="8">
+        <v>5</v>
+      </c>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5">

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -272,6 +272,24 @@
   </si>
   <si>
     <t>واکشی محصولات بصورت میزی لودینگ و صفحه محصولات و متدهای صفحه رجیستر</t>
+  </si>
+  <si>
+    <t>1399/09/19</t>
+  </si>
+  <si>
+    <t>آیکن نصب اپ و صفحه اول بالا آمدن اپ</t>
+  </si>
+  <si>
+    <t>کار روی آیکن های منو</t>
+  </si>
+  <si>
+    <t>کار روز آیکن های اپ و خروجی اپ و رفع باگ اجرا روی موبایل</t>
+  </si>
+  <si>
+    <t>1399/09/20</t>
+  </si>
+  <si>
+    <t>1399/09/21</t>
   </si>
 </sst>
 </file>
@@ -995,7 +1013,7 @@
   <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1588,15 +1606,48 @@
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="8"/>
+      <c r="A40" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="8">
+        <v>9</v>
+      </c>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="8"/>
+      <c r="A41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="8">
+        <v>3</v>
+      </c>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="8"/>
+      <c r="A42" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="8">
+        <v>2</v>
+      </c>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5">

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -290,6 +290,12 @@
   </si>
   <si>
     <t>1399/09/21</t>
+  </si>
+  <si>
+    <t>کار روی گرافیک صفحه محصولات و ایجاد کامپوننت دسته بندی محصول</t>
+  </si>
+  <si>
+    <t>1399/09/22</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1019,7 @@
   <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1651,7 +1657,18 @@
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="10"/>
+      <c r="A43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="10"/>

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="94">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>1399/09/22</t>
+  </si>
+  <si>
+    <t>رفع باگ شبیه ساز بعلت آپدیت ویندوز،رفع باگ HTTP برای اندروی 9 با بالا،کار روی دیزاین جستجوی محصول</t>
+  </si>
+  <si>
+    <t>1399/09/23</t>
   </si>
 </sst>
 </file>
@@ -1018,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1670,8 +1676,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="10"/>
+    <row r="44" spans="1:5" ht="37.5">
+      <c r="A44" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="10"/>

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -302,6 +302,12 @@
   </si>
   <si>
     <t>1399/09/23</t>
+  </si>
+  <si>
+    <t>کار روی چکاپ وصل بودن اینترنت در اپ و بهم ریختگی برنامه و اصلاح دوباره</t>
+  </si>
+  <si>
+    <t>1399/09/24</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1031,7 @@
   <dimension ref="A1:E131"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1690,8 +1696,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="10"/>
+    <row r="45" spans="1:5" ht="37.5">
+      <c r="A45" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="8">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="10"/>

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="100">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -308,6 +308,18 @@
   </si>
   <si>
     <t>1399/09/24</t>
+  </si>
+  <si>
+    <t>طراحی لوگوی شرکت</t>
+  </si>
+  <si>
+    <t>طراحی مهر شرکت</t>
+  </si>
+  <si>
+    <t>طراحی سربرگ شرکت</t>
+  </si>
+  <si>
+    <t>طراحی لوگو و آیکن چم جاب</t>
   </si>
 </sst>
 </file>
@@ -1030,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1712,59 +1724,71 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="10"/>
+      <c r="B46" s="7" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="10"/>
+      <c r="B47" s="7" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="10"/>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="10"/>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="10"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:2">
       <c r="A51" s="10"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:2">
       <c r="A52" s="10"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:2">
       <c r="A53" s="10"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:2">
       <c r="A54" s="10"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:2">
       <c r="A55" s="10"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:2">
       <c r="A56" s="10"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:2">
       <c r="A57" s="10"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:2">
       <c r="A58" s="10"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:2">
       <c r="A59" s="10"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:2">
       <c r="A60" s="10"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:2">
       <c r="A61" s="10"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:2">
       <c r="A62" s="10"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:2">
       <c r="A63" s="10"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:2">
       <c r="A64" s="10"/>
     </row>
     <row r="65" spans="1:1">

--- a/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
+++ b/امور پرسنلی/مهندس بقایی/کارکرد مهندس بقایی.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="138">
   <si>
     <t>نوع فعالیت</t>
   </si>
@@ -320,6 +320,120 @@
   </si>
   <si>
     <t>طراحی لوگو و آیکن چم جاب</t>
+  </si>
+  <si>
+    <t>طراحی و پیاده سازی کلاس پایه و لایه بندی پروژه موبایل</t>
+  </si>
+  <si>
+    <t>پیاده سازی صفحه لاگین و رجیستری</t>
+  </si>
+  <si>
+    <t>1399/12/04</t>
+  </si>
+  <si>
+    <t>تحقیق و بررسی ReactNative و مزایا و معایب جایگزینی با Vue</t>
+  </si>
+  <si>
+    <t>طراحی آیکن های دسته بندی . طراحی صفحه دسته بندی</t>
+  </si>
+  <si>
+    <t>1399/12/14</t>
+  </si>
+  <si>
+    <t>جزئیات محصول</t>
+  </si>
+  <si>
+    <t>1399/12/13</t>
+  </si>
+  <si>
+    <t>جزئیات محصول و نمایش عکس در سایز بزرگ</t>
+  </si>
+  <si>
+    <t>1399/12/12</t>
+  </si>
+  <si>
+    <t>طراحی صفحه پروفایل</t>
+  </si>
+  <si>
+    <t>1399/12/11</t>
+  </si>
+  <si>
+    <t>طراحی صفحه محصول</t>
+  </si>
+  <si>
+    <t>1399/12/09</t>
+  </si>
+  <si>
+    <t>طراحی صفحه محصول و کلاس پایه Axios</t>
+  </si>
+  <si>
+    <t>1399/12/08</t>
+  </si>
+  <si>
+    <t>طراحی جستجو در صفحه دسته بندی و جستجو</t>
+  </si>
+  <si>
+    <t>1399/12/07</t>
+  </si>
+  <si>
+    <t>1399/12/06</t>
+  </si>
+  <si>
+    <t>چکاپ اتصال به اینترنت و طراحی صفحه عدم دسترسی به اینترنت</t>
+  </si>
+  <si>
+    <t>1399/12/15</t>
+  </si>
+  <si>
+    <t>کدهای اتصال به سرور در صفحه رجیستری و ثبت نام کاربر و ایجاد کامپوننت Toast</t>
+  </si>
+  <si>
+    <t>خروج با دوبار کلیک روی دکمه برگشت،اضافه کردن سیستم redux به برنامه</t>
+  </si>
+  <si>
+    <t>1399/12/18</t>
+  </si>
+  <si>
+    <t>صفحات سبد خرید و علاقمندی ها کار می کردم</t>
+  </si>
+  <si>
+    <t>1399/12/17</t>
+  </si>
+  <si>
+    <t>تغییرات کامپوننت محصولات</t>
+  </si>
+  <si>
+    <t>1399/12/16</t>
+  </si>
+  <si>
+    <t>ساخت کامپوننت آکوردیون و تغییرات صفحه توضیحات محصول و پروفایل کاربری</t>
+  </si>
+  <si>
+    <t>1399/12/19</t>
+  </si>
+  <si>
+    <t>1399/09/25</t>
+  </si>
+  <si>
+    <t>1399/10/01</t>
+  </si>
+  <si>
+    <t>طراحی صفحات آدرس،حساب کاربری،و آیتم های صفحه پروفایل و تحویل اولین نسخه به مهندس جعفری و ایمان</t>
+  </si>
+  <si>
+    <t>1399/12/20</t>
+  </si>
+  <si>
+    <t>اضافه کردن اسپلش اسکرین صفحه آغازین برنامه</t>
+  </si>
+  <si>
+    <t>1399/12/23</t>
+  </si>
+  <si>
+    <t>اصلاح پرش صفحه اسپلش اسکرین و بهبود لوگو صفحه خانه</t>
+  </si>
+  <si>
+    <t>1399/12/24</t>
   </si>
 </sst>
 </file>
@@ -766,6 +880,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A1:E1048576"/>
+  <sortState ref="A2:E131">
+    <sortCondition ref="C1:C1048576"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" name="نوع فعالیت" dataDxfId="4"/>
     <tableColumn id="2" name="شرح فعالیت" dataDxfId="3"/>
@@ -1042,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1723,120 +1840,329 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="10"/>
+      <c r="A46" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="B46" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="37.5">
+      <c r="A57" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="37.5">
+      <c r="A60" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="37.5">
+      <c r="A61" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D63" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="10"/>
+      <c r="B65" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="10"/>
-      <c r="B47" s="7" t="s">
+    <row r="66" spans="1:2" ht="37.5">
+      <c r="A66" s="10"/>
+      <c r="B66" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="10"/>
-      <c r="B48" s="7" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="10"/>
+      <c r="B67" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="10"/>
-      <c r="B49" s="7" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="10"/>
+      <c r="B68" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="10"/>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="10"/>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="10"/>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="10"/>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="10"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="10"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="10"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="10"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="10"/>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="10"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="10"/>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="10"/>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="10"/>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="10"/>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="10"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="10"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="10"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="10"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="10"/>
-    </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:2">
       <c r="A69" s="10"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:2">
       <c r="A70" s="10"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:2">
       <c r="A71" s="10"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:2">
       <c r="A72" s="10"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:2">
       <c r="A73" s="10"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:2">
       <c r="A74" s="10"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:2">
       <c r="A75" s="10"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:2">
       <c r="A76" s="10"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:2">
       <c r="A77" s="10"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:2">
       <c r="A78" s="10"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:2">
       <c r="A79" s="10"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:2">
       <c r="A80" s="10"/>
     </row>
     <row r="81" spans="1:1">
@@ -2005,7 +2331,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$5:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A1048576</xm:sqref>
+          <xm:sqref>A1:A52 A54:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
